--- a/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
+++ b/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\ROOM-TYPE-AQT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2930D-D904-481E-B86B-863F633581EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF826C6-7E96-4036-96AB-74C5D64F1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
     <t>percent_relative_humidity</t>
   </si>
   <si>
-    <t>bc38679d-d802-2da2-debb-a8c4cc8ea5ff</t>
+    <t>41a23e25-bba1-81cb-6347-289372234f6e</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1219,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -2189,7 +2189,7 @@
   <dimension ref="A1:H849"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -7168,7 +7168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>

--- a/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
+++ b/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\ROOM-TYPE-AQT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF826C6-7E96-4036-96AB-74C5D64F1AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634200C-90DE-47CE-A47D-1D068A82A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="225">
   <si>
     <t>dbo.section</t>
   </si>
@@ -595,13 +595,127 @@
   </si>
   <si>
     <t>41a23e25-bba1-81cb-6347-289372234f6e</t>
+  </si>
+  <si>
+    <t>HLI-10</t>
+  </si>
+  <si>
+    <t>UB-MMR-RM</t>
+  </si>
+  <si>
+    <t>2a312129-8d7c-8988-7deb-fe61b3757ebf</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_47</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_47</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_47</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_47</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_47</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_48</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_48</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_48</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_48</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_48</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_49</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_49</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_49</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_49</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_49</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_50</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_50</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_50</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_50</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_50</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_51</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_51</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_51</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_51</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_51</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_52</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_52</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_52</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_52</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_52</t>
+  </si>
+  <si>
+    <t>zone_air_co2_concentartion_sensor_53</t>
+  </si>
+  <si>
+    <t>zone_air_temperature_sensor_53</t>
+  </si>
+  <si>
+    <t>zone_air_relative_humidity_sensor_53</t>
+  </si>
+  <si>
+    <t>zone_air_formaldehyde_concentration_sensor_53</t>
+  </si>
+  <si>
+    <t>zone_air_pm2pt5_concentration_sensor_53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -670,11 +784,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0A3069"/>
-      <name val="Ui-monospace"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Ui-monospace"/>
     </font>
   </fonts>
@@ -710,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -732,9 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1219,10 +1325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -1366,9 +1472,51 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="9"/>
@@ -2188,9 +2336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H849"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3123,158 +3271,496 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
+      <c r="A62" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="E62" s="9"/>
     </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="9"/>
+      <c r="A71" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="9"/>
+      <c r="A73" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
+      <c r="A86" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="9"/>
+      <c r="A87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="9"/>
+      <c r="A88" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="9"/>

--- a/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
+++ b/UDMI-CREATION/DELTA/ROOM-TYPE-AQT/aqt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\DELTA\ROOM-TYPE-AQT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634200C-90DE-47CE-A47D-1D068A82A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E12335F-46C6-431D-86D9-81D895D956B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -1325,10 +1325,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75"/>
@@ -1503,10 +1503,10 @@
         <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
         <v>65</v>
@@ -2336,9 +2336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H849"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
